--- a/Code/Results/Cases/Case_1_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_143/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.05728561985047</v>
+        <v>17.88092345040183</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.116388178710135</v>
+        <v>7.627201445290735</v>
       </c>
       <c r="E2">
-        <v>8.664957588947152</v>
+        <v>12.40420050516708</v>
       </c>
       <c r="F2">
-        <v>36.37629677287403</v>
+        <v>39.49635972393731</v>
       </c>
       <c r="G2">
-        <v>2.099376112704157</v>
+        <v>3.706666989924458</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.48745477911275</v>
+        <v>14.52246215023877</v>
       </c>
       <c r="L2">
-        <v>7.88756403055452</v>
+        <v>10.02768412981049</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.08138836896668</v>
+        <v>22.96549459106871</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.36735240011918</v>
+        <v>17.78584503217421</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.192271201012731</v>
+        <v>7.643603733329482</v>
       </c>
       <c r="E3">
-        <v>8.588559878452322</v>
+        <v>12.39044521242943</v>
       </c>
       <c r="F3">
-        <v>34.94307946475927</v>
+        <v>39.24893057530105</v>
       </c>
       <c r="G3">
-        <v>2.109606130295565</v>
+        <v>3.710291553195901</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.24494727717649</v>
+        <v>14.25318853072429</v>
       </c>
       <c r="L3">
-        <v>7.553494239069916</v>
+        <v>9.993460813934059</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.19277015635553</v>
+        <v>23.00150606009767</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.93776608512417</v>
+        <v>17.73153056602055</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.239657838522223</v>
+        <v>7.654150267535102</v>
       </c>
       <c r="E4">
-        <v>8.542853369560593</v>
+        <v>12.38192144256185</v>
       </c>
       <c r="F4">
-        <v>34.06718074690969</v>
+        <v>39.10596306349509</v>
       </c>
       <c r="G4">
-        <v>2.116036892988584</v>
+        <v>3.712632551796228</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.44302604802903</v>
+        <v>14.08999063151655</v>
       </c>
       <c r="L4">
-        <v>7.347158268541322</v>
+        <v>9.974723714928633</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.26637715444709</v>
+        <v>23.02547100231828</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.76142883796782</v>
+        <v>17.71043694566734</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.259177540232766</v>
+        <v>7.658567869174207</v>
       </c>
       <c r="E5">
-        <v>8.524484026788567</v>
+        <v>12.37842776358073</v>
       </c>
       <c r="F5">
-        <v>33.71160325738832</v>
+        <v>39.0499962951766</v>
       </c>
       <c r="G5">
-        <v>2.118697340384606</v>
+        <v>3.713615680382824</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.10627554433826</v>
+        <v>14.02412243908537</v>
       </c>
       <c r="L5">
-        <v>7.262869346516335</v>
+        <v>9.967665645246745</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.29763739439558</v>
+        <v>23.03570274434314</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.73207821701499</v>
+        <v>17.70699767322948</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.262431689091897</v>
+        <v>7.659308651624899</v>
       </c>
       <c r="E6">
-        <v>8.521448039504545</v>
+        <v>12.37784640586532</v>
       </c>
       <c r="F6">
-        <v>33.652652372977</v>
+        <v>39.04084273139661</v>
       </c>
       <c r="G6">
-        <v>2.119141576308139</v>
+        <v>3.713780692076719</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.04975251631401</v>
+        <v>14.01322639002018</v>
       </c>
       <c r="L6">
-        <v>7.248864050045311</v>
+        <v>9.966528670327815</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.30290322417495</v>
+        <v>23.03742984359146</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.93539279120802</v>
+        <v>17.73124185668905</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.239920228144327</v>
+        <v>7.654209359473994</v>
       </c>
       <c r="E7">
-        <v>8.542604653389905</v>
+        <v>12.38187440795777</v>
       </c>
       <c r="F7">
-        <v>34.06237933851807</v>
+        <v>39.10519893704044</v>
       </c>
       <c r="G7">
-        <v>2.116072608441618</v>
+        <v>3.712645692431436</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.43852503802773</v>
+        <v>14.08909960334326</v>
       </c>
       <c r="L7">
-        <v>7.346022206691728</v>
+        <v>9.974626183044281</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.26679367917122</v>
+        <v>23.02560710550187</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.82075695802617</v>
+        <v>17.84730819688782</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.142393598368068</v>
+        <v>7.632758419142059</v>
       </c>
       <c r="E8">
-        <v>8.638337213627279</v>
+        <v>12.39947351583333</v>
       </c>
       <c r="F8">
-        <v>35.8814523226034</v>
+        <v>39.40921384223044</v>
       </c>
       <c r="G8">
-        <v>2.10287381566362</v>
+        <v>3.707892832446654</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.06704310569109</v>
+        <v>14.42923233205843</v>
       </c>
       <c r="L8">
-        <v>7.772684624590331</v>
+        <v>10.01541476925895</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.11867985883071</v>
+        <v>22.97752641257214</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.50173561672491</v>
+        <v>18.10629746059912</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.957013085553578</v>
+        <v>7.594454385472201</v>
       </c>
       <c r="E9">
-        <v>8.837927627055914</v>
+        <v>12.43339360309009</v>
       </c>
       <c r="F9">
-        <v>39.46979507125894</v>
+        <v>40.07442143444892</v>
       </c>
       <c r="G9">
-        <v>2.078065024294969</v>
+        <v>3.699483987281567</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.95822442847752</v>
+        <v>15.10886589470707</v>
       </c>
       <c r="L9">
-        <v>8.596137942805749</v>
+        <v>10.11320795327748</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.87201818695519</v>
+        <v>22.89796320987545</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.69519161898454</v>
+        <v>18.31445758747083</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.823806232179273</v>
+        <v>7.568589060370476</v>
       </c>
       <c r="E10">
-        <v>8.995484123666209</v>
+        <v>12.45799302530456</v>
       </c>
       <c r="F10">
-        <v>42.10877204241197</v>
+        <v>40.60229328232914</v>
       </c>
       <c r="G10">
-        <v>2.060319739417691</v>
+        <v>3.693854743640885</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.90896215451771</v>
+        <v>15.61020803825244</v>
       </c>
       <c r="L10">
-        <v>9.381182067110643</v>
+        <v>10.19553123183074</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.72124173355375</v>
+        <v>22.84850362879872</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.22817106823227</v>
+        <v>18.41274473947837</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.763740212851246</v>
+        <v>7.557313209170928</v>
       </c>
       <c r="E11">
-        <v>9.070503591643398</v>
+        <v>12.46912265385495</v>
       </c>
       <c r="F11">
-        <v>43.30927330489592</v>
+        <v>40.85024387650425</v>
       </c>
       <c r="G11">
-        <v>2.052307762778163</v>
+        <v>3.691411525805421</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.76142566728878</v>
+        <v>15.83756559714158</v>
       </c>
       <c r="L11">
-        <v>9.736475686215288</v>
+        <v>10.23516278099208</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.66023701101581</v>
+        <v>22.82796101065186</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.42853701678185</v>
+        <v>18.45045404839597</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.741062979219271</v>
+        <v>7.553113626426165</v>
       </c>
       <c r="E12">
-        <v>9.099488197653924</v>
+        <v>12.47332907416256</v>
       </c>
       <c r="F12">
-        <v>43.76393390712825</v>
+        <v>40.94519842651803</v>
       </c>
       <c r="G12">
-        <v>2.049278382215375</v>
+        <v>3.690503133105341</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.07945493103133</v>
+        <v>15.92346730482537</v>
       </c>
       <c r="L12">
-        <v>9.868985570275592</v>
+        <v>10.25047519786559</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.63832165473122</v>
+        <v>22.82046385601656</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.38544981034291</v>
+        <v>18.44231131168909</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.745943990951904</v>
+        <v>7.554014956280701</v>
       </c>
       <c r="E13">
-        <v>9.093218542347969</v>
+        <v>12.47242349804388</v>
       </c>
       <c r="F13">
-        <v>43.66601022423416</v>
+        <v>40.92470210571521</v>
       </c>
       <c r="G13">
-        <v>2.049930680644596</v>
+        <v>3.690698026141113</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.01117007565005</v>
+        <v>15.90497686992632</v>
       </c>
       <c r="L13">
-        <v>9.840536015430709</v>
+        <v>10.24716398724063</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.64298713054363</v>
+        <v>22.82206595717875</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.24468466333771</v>
+        <v>18.4158374409615</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.761873210656132</v>
+        <v>7.556966298334114</v>
       </c>
       <c r="E14">
-        <v>9.072876025844307</v>
+        <v>12.46946887797373</v>
       </c>
       <c r="F14">
-        <v>43.34667672517847</v>
+        <v>40.8580349498768</v>
       </c>
       <c r="G14">
-        <v>2.052058467341987</v>
+        <v>3.691336455666322</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.78768443869639</v>
+        <v>15.84463717628753</v>
       </c>
       <c r="L14">
-        <v>9.747417522827453</v>
+        <v>10.23641648730435</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.65840966659113</v>
+        <v>22.82733856283742</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.15827116032168</v>
+        <v>18.39968444749188</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.771639026187859</v>
+        <v>7.558783235227345</v>
       </c>
       <c r="E15">
-        <v>9.060493771235553</v>
+        <v>12.46765804751563</v>
       </c>
       <c r="F15">
-        <v>43.15108633219031</v>
+        <v>40.8173356550253</v>
       </c>
       <c r="G15">
-        <v>2.053362264194297</v>
+        <v>3.691729697099556</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.65017819098082</v>
+        <v>15.80764948842154</v>
       </c>
       <c r="L15">
-        <v>9.690117992377898</v>
+        <v>10.22987275245126</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.6680138786116</v>
+        <v>22.83060491142048</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.6601566587584</v>
+        <v>18.30810434911248</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.827741663117012</v>
+        <v>7.569335816305482</v>
       </c>
       <c r="E16">
-        <v>8.990656583361117</v>
+        <v>12.45726450708672</v>
       </c>
       <c r="F16">
-        <v>42.03031936488244</v>
+        <v>40.5862411034586</v>
       </c>
       <c r="G16">
-        <v>2.060844216956196</v>
+        <v>3.694016770316741</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.85256889485174</v>
+        <v>15.5953275093951</v>
       </c>
       <c r="L16">
-        <v>9.357673246697074</v>
+        <v>10.19298437262707</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.7253890127703</v>
+        <v>22.84988555582785</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.35200121615149</v>
+        <v>18.25282473280473</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.862288707920314</v>
+        <v>7.575934957119845</v>
       </c>
       <c r="E17">
-        <v>8.948734257519526</v>
+        <v>12.45087327429848</v>
       </c>
       <c r="F17">
-        <v>41.34277948164978</v>
+        <v>40.44643037620701</v>
       </c>
       <c r="G17">
-        <v>2.065446860280891</v>
+        <v>3.69544985033693</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.3544787989914</v>
+        <v>15.46482719400076</v>
       </c>
       <c r="L17">
-        <v>9.150009237213927</v>
+        <v>10.17090724585239</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.76259328704009</v>
+        <v>22.86221514468638</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.17382356517142</v>
+        <v>18.22136931263225</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.882209585541204</v>
+        <v>7.5797767791186</v>
       </c>
       <c r="E18">
-        <v>8.924930153323002</v>
+        <v>12.44719144927309</v>
       </c>
       <c r="F18">
-        <v>40.94731761924379</v>
+        <v>40.36675485145153</v>
       </c>
       <c r="G18">
-        <v>2.068100141357855</v>
+        <v>3.696285190876949</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.064686133576</v>
+        <v>15.38970571817053</v>
       </c>
       <c r="L18">
-        <v>9.029170607817818</v>
+        <v>10.15841504622931</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.78469968483595</v>
+        <v>22.86949095013068</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.11333672188007</v>
+        <v>18.21077823421737</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.88896335624475</v>
+        <v>7.581085489601182</v>
       </c>
       <c r="E19">
-        <v>8.916920799808079</v>
+        <v>12.44594383932283</v>
       </c>
       <c r="F19">
-        <v>40.81341964125644</v>
+        <v>40.33990706088976</v>
       </c>
       <c r="G19">
-        <v>2.068999638154774</v>
+        <v>3.696569927403333</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.96599276273382</v>
+        <v>15.36426325531763</v>
       </c>
       <c r="L19">
-        <v>8.988014376945078</v>
+        <v>10.15422104480903</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.79230333659198</v>
+        <v>22.87198602584685</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.38490199180234</v>
+        <v>18.25867434926592</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.858605967850722</v>
+        <v>7.575227690215081</v>
       </c>
       <c r="E20">
-        <v>8.953164385468833</v>
+        <v>12.45155422326616</v>
       </c>
       <c r="F20">
-        <v>41.41596990963793</v>
+        <v>40.46123734133819</v>
       </c>
       <c r="G20">
-        <v>2.064956312175364</v>
+        <v>3.695296151487294</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.4078416500171</v>
+        <v>15.47872618555625</v>
       </c>
       <c r="L20">
-        <v>9.172259254610578</v>
+        <v>10.1732361391164</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.75855895562535</v>
+        <v>22.86088357637099</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.28607057080625</v>
+        <v>18.42360037479919</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.75719260966395</v>
+        <v>7.55609751012287</v>
       </c>
       <c r="E21">
-        <v>9.078834644870373</v>
+        <v>12.47033693722635</v>
       </c>
       <c r="F21">
-        <v>43.44047027773656</v>
+        <v>40.87758842836877</v>
       </c>
       <c r="G21">
-        <v>2.051433395741355</v>
+        <v>3.69114847828786</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.85345524766938</v>
+        <v>15.86236637615688</v>
       </c>
       <c r="L21">
-        <v>9.774823055977754</v>
+        <v>10.23956509041584</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.65384669105255</v>
+        <v>22.82578221629326</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.8665246502958</v>
+        <v>18.53423273974125</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.691309722870137</v>
+        <v>7.544004731376597</v>
       </c>
       <c r="E22">
-        <v>9.164381756266691</v>
+        <v>12.48256543466291</v>
       </c>
       <c r="F22">
-        <v>44.76402249935603</v>
+        <v>41.15585171265634</v>
       </c>
       <c r="G22">
-        <v>2.042619804604064</v>
+        <v>3.688535614862724</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.770517616775</v>
+        <v>16.11192898869757</v>
       </c>
       <c r="L22">
-        <v>10.15683846200997</v>
+        <v>10.28468702495528</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.59237639825538</v>
+        <v>22.80448475320236</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.55750643397947</v>
+        <v>18.47493501900966</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.726438543133373</v>
+        <v>7.550421427990929</v>
       </c>
       <c r="E23">
-        <v>9.118375973828417</v>
+        <v>12.47604296130094</v>
       </c>
       <c r="F23">
-        <v>44.0575364853094</v>
+        <v>41.00679573703823</v>
       </c>
       <c r="G23">
-        <v>2.047323043486663</v>
+        <v>3.689921227111306</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.28351386959777</v>
+        <v>15.9788689509991</v>
       </c>
       <c r="L23">
-        <v>9.953996093499534</v>
+        <v>10.26044555432422</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.62451215654523</v>
+        <v>22.81570107870851</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.37003070957346</v>
+        <v>18.25602872153826</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.860270749256452</v>
+        <v>7.575547296385612</v>
       </c>
       <c r="E24">
-        <v>8.951160604661489</v>
+        <v>12.45124638944537</v>
       </c>
       <c r="F24">
-        <v>41.38288109946444</v>
+        <v>40.45454091613291</v>
       </c>
       <c r="G24">
-        <v>2.065178066367854</v>
+        <v>3.695365603082632</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.3837270193945</v>
+        <v>15.47244274063303</v>
       </c>
       <c r="L24">
-        <v>9.162204544381851</v>
+        <v>10.17218262209252</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.76038065010043</v>
+        <v>22.86148499479005</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.05385040744811</v>
+        <v>18.03299812267266</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.006596638057133</v>
+        <v>7.604415686296109</v>
       </c>
       <c r="E25">
-        <v>8.782311327193909</v>
+        <v>12.4242766458668</v>
       </c>
       <c r="F25">
-        <v>38.4981159387729</v>
+        <v>39.887365086027</v>
       </c>
       <c r="G25">
-        <v>2.084678282061128</v>
+        <v>3.701661939582017</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.20737889165355</v>
+        <v>14.92425040964198</v>
       </c>
       <c r="L25">
-        <v>8.375219835385339</v>
+        <v>10.08488278067921</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.93369941924205</v>
+        <v>22.91790894001304</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_143/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.88092345040183</v>
+        <v>15.05728561985052</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.627201445290735</v>
+        <v>5.116388178710256</v>
       </c>
       <c r="E2">
-        <v>12.40420050516708</v>
+        <v>8.664957588947287</v>
       </c>
       <c r="F2">
-        <v>39.49635972393731</v>
+        <v>36.37629677287401</v>
       </c>
       <c r="G2">
-        <v>3.706666989924458</v>
+        <v>2.099376112704025</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.52246215023877</v>
+        <v>17.48745477911276</v>
       </c>
       <c r="L2">
-        <v>10.02768412981049</v>
+        <v>7.887564030554516</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.96549459106871</v>
+        <v>16.08138836896673</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.78584503217421</v>
+        <v>14.36735240011911</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.643603733329482</v>
+        <v>5.192271201012791</v>
       </c>
       <c r="E3">
-        <v>12.39044521242943</v>
+        <v>8.588559878451987</v>
       </c>
       <c r="F3">
-        <v>39.24893057530105</v>
+        <v>34.94307946475926</v>
       </c>
       <c r="G3">
-        <v>3.710291553195901</v>
+        <v>2.109606130295703</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.25318853072429</v>
+        <v>16.2449472771764</v>
       </c>
       <c r="L3">
-        <v>9.993460813934059</v>
+        <v>7.553494239069904</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.00150606009767</v>
+        <v>16.19277015635549</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.73153056602055</v>
+        <v>13.93776608512419</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.654150267535102</v>
+        <v>5.239657838522228</v>
       </c>
       <c r="E4">
-        <v>12.38192144256185</v>
+        <v>8.542853369560726</v>
       </c>
       <c r="F4">
-        <v>39.10596306349509</v>
+        <v>34.06718074690978</v>
       </c>
       <c r="G4">
-        <v>3.712632551796228</v>
+        <v>2.116036892988454</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.08999063151655</v>
+        <v>15.44302604802903</v>
       </c>
       <c r="L4">
-        <v>9.974723714928633</v>
+        <v>7.347158268541374</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.02547100231828</v>
+        <v>16.26637715444715</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.71043694566734</v>
+        <v>13.7614288379678</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.658567869174207</v>
+        <v>5.259177540232831</v>
       </c>
       <c r="E5">
-        <v>12.37842776358073</v>
+        <v>8.524484026788501</v>
       </c>
       <c r="F5">
-        <v>39.0499962951766</v>
+        <v>33.71160325738825</v>
       </c>
       <c r="G5">
-        <v>3.713615680382824</v>
+        <v>2.118697340384738</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.02412243908537</v>
+        <v>15.10627554433829</v>
       </c>
       <c r="L5">
-        <v>9.967665645246745</v>
+        <v>7.262869346516326</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.03570274434314</v>
+        <v>16.29763739439557</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.70699767322948</v>
+        <v>13.73207821701504</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.659308651624899</v>
+        <v>5.262431689091903</v>
       </c>
       <c r="E6">
-        <v>12.37784640586532</v>
+        <v>8.521448039504751</v>
       </c>
       <c r="F6">
-        <v>39.04084273139661</v>
+        <v>33.65265237297712</v>
       </c>
       <c r="G6">
-        <v>3.713780692076719</v>
+        <v>2.119141576308404</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.01322639002018</v>
+        <v>15.04975251631402</v>
       </c>
       <c r="L6">
-        <v>9.966528670327815</v>
+        <v>7.248864050045343</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.03742984359146</v>
+        <v>16.30290322417501</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.73124185668905</v>
+        <v>13.935392791208</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.654209359473994</v>
+        <v>5.239920228144268</v>
       </c>
       <c r="E7">
-        <v>12.38187440795777</v>
+        <v>8.542604653390107</v>
       </c>
       <c r="F7">
-        <v>39.10519893704044</v>
+        <v>34.0623793385179</v>
       </c>
       <c r="G7">
-        <v>3.712645692431436</v>
+        <v>2.116072608441353</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.08909960334326</v>
+        <v>15.43852503802778</v>
       </c>
       <c r="L7">
-        <v>9.974626183044281</v>
+        <v>7.34602220669171</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.02560710550187</v>
+        <v>16.26679367917119</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.84730819688782</v>
+        <v>14.82075695802613</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.632758419142059</v>
+        <v>5.142393598368125</v>
       </c>
       <c r="E8">
-        <v>12.39947351583333</v>
+        <v>8.638337213627283</v>
       </c>
       <c r="F8">
-        <v>39.40921384223044</v>
+        <v>35.88145232260332</v>
       </c>
       <c r="G8">
-        <v>3.707892832446654</v>
+        <v>2.102873815663619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.42923233205843</v>
+        <v>17.06704310569113</v>
       </c>
       <c r="L8">
-        <v>10.01541476925895</v>
+        <v>7.772684624590331</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.97752641257214</v>
+        <v>16.1186798588307</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.10629746059912</v>
+        <v>16.50173561672489</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.594454385472201</v>
+        <v>4.95701308555382</v>
       </c>
       <c r="E9">
-        <v>12.43339360309009</v>
+        <v>8.837927627055846</v>
       </c>
       <c r="F9">
-        <v>40.07442143444892</v>
+        <v>39.46979507125883</v>
       </c>
       <c r="G9">
-        <v>3.699483987281567</v>
+        <v>2.078065024294967</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.10886589470707</v>
+        <v>19.95822442847752</v>
       </c>
       <c r="L9">
-        <v>10.11320795327748</v>
+        <v>8.596137942805749</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.89796320987545</v>
+        <v>15.87201818695517</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.31445758747083</v>
+        <v>17.69519161898453</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.568589060370476</v>
+        <v>4.823806232179273</v>
       </c>
       <c r="E10">
-        <v>12.45799302530456</v>
+        <v>8.995484123665941</v>
       </c>
       <c r="F10">
-        <v>40.60229328232914</v>
+        <v>42.10877204241208</v>
       </c>
       <c r="G10">
-        <v>3.693854743640885</v>
+        <v>2.060319739417691</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.61020803825244</v>
+        <v>21.90896215451758</v>
       </c>
       <c r="L10">
-        <v>10.19553123183074</v>
+        <v>9.381182067110583</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.84850362879872</v>
+        <v>15.72124173355384</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.41274473947837</v>
+        <v>18.22817106823225</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.557313209170928</v>
+        <v>4.76374021285124</v>
       </c>
       <c r="E11">
-        <v>12.46912265385495</v>
+        <v>9.070503591643533</v>
       </c>
       <c r="F11">
-        <v>40.85024387650425</v>
+        <v>43.30927330489592</v>
       </c>
       <c r="G11">
-        <v>3.691411525805421</v>
+        <v>2.052307762777897</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.83756559714158</v>
+        <v>22.76142566728878</v>
       </c>
       <c r="L11">
-        <v>10.23516278099208</v>
+        <v>9.736475686215233</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.82796101065186</v>
+        <v>15.6602370110158</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.45045404839597</v>
+        <v>18.42853701678189</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.553113626426165</v>
+        <v>4.741062979219395</v>
       </c>
       <c r="E12">
-        <v>12.47332907416256</v>
+        <v>9.099488197654191</v>
       </c>
       <c r="F12">
-        <v>40.94519842651803</v>
+        <v>43.76393390712821</v>
       </c>
       <c r="G12">
-        <v>3.690503133105341</v>
+        <v>2.049278382215376</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.92346730482537</v>
+        <v>23.07945493103135</v>
       </c>
       <c r="L12">
-        <v>10.25047519786559</v>
+        <v>9.868985570275578</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.82046385601656</v>
+        <v>15.63832165473124</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.44231131168909</v>
+        <v>18.38544981034291</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.554014956280701</v>
+        <v>4.745943990951964</v>
       </c>
       <c r="E13">
-        <v>12.47242349804388</v>
+        <v>9.093218542348106</v>
       </c>
       <c r="F13">
-        <v>40.92470210571521</v>
+        <v>43.66601022423416</v>
       </c>
       <c r="G13">
-        <v>3.690698026141113</v>
+        <v>2.049930680644601</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.90497686992632</v>
+        <v>23.01117007565015</v>
       </c>
       <c r="L13">
-        <v>10.24716398724063</v>
+        <v>9.840536015430716</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.82206595717875</v>
+        <v>15.64298713054365</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.4158374409615</v>
+        <v>18.24468466333771</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.556966298334114</v>
+        <v>4.761873210656086</v>
       </c>
       <c r="E14">
-        <v>12.46946887797373</v>
+        <v>9.072876025844373</v>
       </c>
       <c r="F14">
-        <v>40.8580349498768</v>
+        <v>43.34667672517847</v>
       </c>
       <c r="G14">
-        <v>3.691336455666322</v>
+        <v>2.052058467341987</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.84463717628753</v>
+        <v>22.78768443869636</v>
       </c>
       <c r="L14">
-        <v>10.23641648730435</v>
+        <v>9.747417522827412</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.82733856283742</v>
+        <v>15.65840966659121</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.39968444749188</v>
+        <v>18.15827116032166</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.558783235227345</v>
+        <v>4.771639026187984</v>
       </c>
       <c r="E15">
-        <v>12.46765804751563</v>
+        <v>9.060493771235421</v>
       </c>
       <c r="F15">
-        <v>40.8173356550253</v>
+        <v>43.15108633219032</v>
       </c>
       <c r="G15">
-        <v>3.691729697099556</v>
+        <v>2.053362264194164</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.80764948842154</v>
+        <v>22.65017819098087</v>
       </c>
       <c r="L15">
-        <v>10.22987275245126</v>
+        <v>9.690117992377946</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.83060491142048</v>
+        <v>15.66801387861159</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.30810434911248</v>
+        <v>17.66015665875837</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.569335816305482</v>
+        <v>4.827741663117183</v>
       </c>
       <c r="E16">
-        <v>12.45726450708672</v>
+        <v>8.990656583361121</v>
       </c>
       <c r="F16">
-        <v>40.5862411034586</v>
+        <v>42.03031936488249</v>
       </c>
       <c r="G16">
-        <v>3.694016770316741</v>
+        <v>2.060844216956199</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.5953275093951</v>
+        <v>21.85256889485175</v>
       </c>
       <c r="L16">
-        <v>10.19298437262707</v>
+        <v>9.357673246697008</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.84988555582785</v>
+        <v>15.72538901277029</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.25282473280473</v>
+        <v>17.35200121615148</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.575934957119845</v>
+        <v>4.862288707920189</v>
       </c>
       <c r="E17">
-        <v>12.45087327429848</v>
+        <v>8.948734257519323</v>
       </c>
       <c r="F17">
-        <v>40.44643037620701</v>
+        <v>41.34277948164981</v>
       </c>
       <c r="G17">
-        <v>3.69544985033693</v>
+        <v>2.065446860281019</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.46482719400076</v>
+        <v>21.35447879899139</v>
       </c>
       <c r="L17">
-        <v>10.17090724585239</v>
+        <v>9.150009237213927</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.86221514468638</v>
+        <v>15.76259328704006</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.22136931263225</v>
+        <v>17.17382356517145</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.5797767791186</v>
+        <v>4.882209585541266</v>
       </c>
       <c r="E18">
-        <v>12.44719144927309</v>
+        <v>8.924930153323137</v>
       </c>
       <c r="F18">
-        <v>40.36675485145153</v>
+        <v>40.9473176192438</v>
       </c>
       <c r="G18">
-        <v>3.696285190876949</v>
+        <v>2.06810014135759</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.38970571817053</v>
+        <v>21.06468613357596</v>
       </c>
       <c r="L18">
-        <v>10.15841504622931</v>
+        <v>9.029170607817786</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.86949095013068</v>
+        <v>15.78469968483598</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.21077823421737</v>
+        <v>17.11333672188008</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.581085489601182</v>
+        <v>4.888963356244822</v>
       </c>
       <c r="E19">
-        <v>12.44594383932283</v>
+        <v>8.916920799808414</v>
       </c>
       <c r="F19">
-        <v>40.33990706088976</v>
+        <v>40.81341964125645</v>
       </c>
       <c r="G19">
-        <v>3.696569927403333</v>
+        <v>2.06899963815491</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.36426325531763</v>
+        <v>20.96599276273392</v>
       </c>
       <c r="L19">
-        <v>10.15422104480903</v>
+        <v>8.98801437694504</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.87198602584685</v>
+        <v>15.79230333659198</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.25867434926592</v>
+        <v>17.38490199180236</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.575227690215081</v>
+        <v>4.858605967850607</v>
       </c>
       <c r="E20">
-        <v>12.45155422326616</v>
+        <v>8.953164385468966</v>
       </c>
       <c r="F20">
-        <v>40.46123734133819</v>
+        <v>41.41596990963798</v>
       </c>
       <c r="G20">
-        <v>3.695296151487294</v>
+        <v>2.064956312175624</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.47872618555625</v>
+        <v>21.40784165001712</v>
       </c>
       <c r="L20">
-        <v>10.1732361391164</v>
+        <v>9.172259254610585</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.86088357637099</v>
+        <v>15.75855895562539</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.42360037479919</v>
+        <v>18.28607057080629</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.55609751012287</v>
+        <v>4.757192609664079</v>
       </c>
       <c r="E21">
-        <v>12.47033693722635</v>
+        <v>9.078834644870307</v>
       </c>
       <c r="F21">
-        <v>40.87758842836877</v>
+        <v>43.44047027773654</v>
       </c>
       <c r="G21">
-        <v>3.69114847828786</v>
+        <v>2.051433395741218</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.86236637615688</v>
+        <v>22.85345524766935</v>
       </c>
       <c r="L21">
-        <v>10.23956509041584</v>
+        <v>9.774823055977775</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.82578221629326</v>
+        <v>15.65384669105254</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.53423273974125</v>
+        <v>18.8665246502958</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.544004731376597</v>
+        <v>4.691309722870029</v>
       </c>
       <c r="E22">
-        <v>12.48256543466291</v>
+        <v>9.164381756266824</v>
       </c>
       <c r="F22">
-        <v>41.15585171265634</v>
+        <v>44.76402249935612</v>
       </c>
       <c r="G22">
-        <v>3.688535614862724</v>
+        <v>2.042619804604056</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.11192898869757</v>
+        <v>23.77051761677507</v>
       </c>
       <c r="L22">
-        <v>10.28468702495528</v>
+        <v>10.15683846201007</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.80448475320236</v>
+        <v>15.59237639825531</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.47493501900966</v>
+        <v>18.55750643397945</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.550421427990929</v>
+        <v>4.726438543133426</v>
       </c>
       <c r="E23">
-        <v>12.47604296130094</v>
+        <v>9.11837597382835</v>
       </c>
       <c r="F23">
-        <v>41.00679573703823</v>
+        <v>44.05753648530932</v>
       </c>
       <c r="G23">
-        <v>3.689921227111306</v>
+        <v>2.04732304348653</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.9788689509991</v>
+        <v>23.28351386959778</v>
       </c>
       <c r="L23">
-        <v>10.26044555432422</v>
+        <v>9.953996093499539</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.81570107870851</v>
+        <v>15.62451215654517</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.25602872153826</v>
+        <v>17.37003070957347</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.575547296385612</v>
+        <v>4.860270749256572</v>
       </c>
       <c r="E24">
-        <v>12.45124638944537</v>
+        <v>8.951160604661554</v>
       </c>
       <c r="F24">
-        <v>40.45454091613291</v>
+        <v>41.38288109946441</v>
       </c>
       <c r="G24">
-        <v>3.695365603082632</v>
+        <v>2.065178066367854</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.47244274063303</v>
+        <v>21.38372701939453</v>
       </c>
       <c r="L24">
-        <v>10.17218262209252</v>
+        <v>9.162204544381847</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.86148499479005</v>
+        <v>15.76038065010036</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.03299812267266</v>
+        <v>16.05385040744809</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.604415686296109</v>
+        <v>5.006596638057323</v>
       </c>
       <c r="E25">
-        <v>12.4242766458668</v>
+        <v>8.78231132719384</v>
       </c>
       <c r="F25">
-        <v>39.887365086027</v>
+        <v>38.49811593877291</v>
       </c>
       <c r="G25">
-        <v>3.701661939582017</v>
+        <v>2.084678282061124</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.92425040964198</v>
+        <v>19.20737889165355</v>
       </c>
       <c r="L25">
-        <v>10.08488278067921</v>
+        <v>8.375219835385343</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.91790894001304</v>
+        <v>15.93369941924205</v>
       </c>
       <c r="O25">
         <v>0</v>
